--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Tony Teja/Tony Teja.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Tony Teja/Tony Teja.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Tony Teja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED807CF-549D-4C45-95A4-C3129ACBF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB26160-8D6C-4E5F-AC2A-E9458C168E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{446FB172-652E-4238-90B1-A40C430EC580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{40D45F24-F2E7-4A52-BFC3-489D6D3EDB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tony Teja" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>JAMSOSTEK</t>
@@ -969,8 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E121D5B-9E39-4C46-87E3-6C5B5CA7CF6A}">
-  <sheetPr codeName="Sheet23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A4000C-C97E-4F65-B806-BC7351A00CB3}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1180,23 +1182,25 @@
       <c r="P6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34">
@@ -1219,7 +1223,7 @@
         <v>2.601372417386073E-2</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="33">
         <v>1</v>
@@ -1227,23 +1231,25 @@
       <c r="P7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
@@ -1268,7 +1274,7 @@
         <v>2.5219804721236215E-3</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="26">
         <v>1</v>
@@ -1276,23 +1282,25 @@
       <c r="P8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34">
@@ -1315,7 +1323,7 @@
         <v>1.2609902360618108E-3</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="33">
         <v>1</v>
@@ -1323,23 +1331,25 @@
       <c r="P9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27">
@@ -1364,31 +1374,33 @@
         <v>0</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" s="26">
         <v>1</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34">
@@ -1411,7 +1423,7 @@
         <v>6.4053260030995742E-4</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O11" s="33">
         <v>1</v>
@@ -1419,23 +1431,25 @@
       <c r="P11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27">
@@ -1460,7 +1474,7 @@
         <v>3.8060720493100844E-3</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="26">
         <v>1</v>
@@ -1468,17 +1482,19 @@
       <c r="P12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>21</v>
@@ -1509,7 +1525,7 @@
         <v>3.3906816897075469E-2</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O13" s="33">
         <v>1</v>
@@ -1517,23 +1533,25 @@
       <c r="P13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="38"/>
+      <c r="Q13" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27">
@@ -1558,7 +1576,7 @@
         <v>2.5987949533435625E-2</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O14" s="26">
         <v>1</v>
@@ -1566,23 +1584,25 @@
       <c r="P14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34">
@@ -1607,7 +1627,7 @@
         <v>1.608014749026021E-2</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O15" s="33">
         <v>1</v>
@@ -1615,23 +1635,25 @@
       <c r="P15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="38"/>
+      <c r="Q15" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27">
@@ -1654,7 +1676,7 @@
         <v>1.03072837499598E-2</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O16" s="26">
         <v>1</v>
@@ -1662,23 +1684,25 @@
       <c r="P16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34">
@@ -1703,7 +1727,7 @@
         <v>0.39398217528764995</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O17" s="33">
         <v>1</v>
@@ -1711,23 +1735,25 @@
       <c r="P17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="38"/>
+      <c r="Q17" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27">
@@ -1750,7 +1776,7 @@
         <v>1.2609902360618108E-3</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
@@ -1758,23 +1784,25 @@
       <c r="P18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34">
@@ -1797,7 +1825,7 @@
         <v>1.2609902360618108E-3</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O19" s="33">
         <v>1</v>
@@ -1805,23 +1833,25 @@
       <c r="P19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="38"/>
+      <c r="Q19" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27">
@@ -1846,7 +1876,7 @@
         <v>1.2609902360618108E-3</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O20" s="26">
         <v>1</v>
@@ -1854,23 +1884,25 @@
       <c r="P20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="31"/>
+      <c r="Q20" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34">
@@ -1895,31 +1927,33 @@
         <v>0</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O21" s="33">
         <v>1</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="27">
@@ -1942,7 +1976,7 @@
         <v>5.4474778197870229E-2</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O22" s="26">
         <v>1</v>
@@ -1950,23 +1984,25 @@
       <c r="P22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34">
@@ -1991,15 +2027,17 @@
         <v>0</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O23" s="33">
         <v>1</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
@@ -2012,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>22</v>
@@ -2038,7 +2076,7 @@
         <v>2.5459897262182381E-3</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O24" s="26">
         <v>1</v>
@@ -2046,23 +2084,25 @@
       <c r="P24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34">
@@ -2085,7 +2125,7 @@
         <v>2.876409519753987E-2</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="33">
         <v>1</v>
@@ -2093,23 +2133,25 @@
       <c r="P25" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="38"/>
+      <c r="Q25" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27">
@@ -2134,7 +2176,7 @@
         <v>3.5307726609730703E-3</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="26">
         <v>1</v>
@@ -2142,23 +2184,25 @@
       <c r="P26" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="31"/>
+      <c r="Q26" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34">
@@ -2181,7 +2225,7 @@
         <v>1.5131882832741729E-3</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="33">
         <v>1</v>
@@ -2189,23 +2233,25 @@
       <c r="P27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="38"/>
+      <c r="Q27" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27">
@@ -2230,31 +2276,33 @@
         <v>0</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="26">
         <v>1</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="34">
@@ -2277,7 +2325,7 @@
         <v>2.586089215725004E-3</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="33">
         <v>1</v>
@@ -2285,23 +2333,25 @@
       <c r="P29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="38"/>
+      <c r="Q29" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="27">
@@ -2326,7 +2376,7 @@
         <v>3.1511372150024326E-3</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="26">
         <v>1</v>
@@ -2334,23 +2384,25 @@
       <c r="P30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
@@ -2373,28 +2425,30 @@
         <v>0</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="33">
         <v>1</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>22</v>
@@ -2422,7 +2476,7 @@
         <v>2.8614138238667403E-2</v>
       </c>
       <c r="N32" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="26">
         <v>1</v>
@@ -2430,23 +2484,25 @@
       <c r="P32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="31"/>
+      <c r="Q32" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="34">
@@ -2471,31 +2527,33 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="33">
         <v>1</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27">
@@ -2520,7 +2578,7 @@
         <v>8.0703375107955885E-3</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" s="26">
         <v>1</v>
@@ -2528,23 +2586,25 @@
       <c r="P34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="31"/>
+      <c r="Q34" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34">
@@ -2569,7 +2629,7 @@
         <v>1.5668459397990754E-2</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O35" s="33">
         <v>1</v>
@@ -2577,23 +2637,25 @@
       <c r="P35" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="38"/>
+      <c r="Q35" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="27">
@@ -2618,7 +2680,7 @@
         <v>0.49376695552691208</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O36" s="26">
         <v>1</v>
@@ -2626,23 +2688,25 @@
       <c r="P36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="31"/>
+      <c r="Q36" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="34">
@@ -2665,7 +2729,7 @@
         <v>1.5131882832741729E-3</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O37" s="33">
         <v>1</v>
@@ -2673,23 +2737,25 @@
       <c r="P37" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="27">
@@ -2712,7 +2778,7 @@
         <v>1.5131882832741729E-3</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O38" s="26">
         <v>1</v>
@@ -2720,23 +2786,25 @@
       <c r="P38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="34">
@@ -2761,31 +2829,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O39" s="33">
         <v>1</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27">
@@ -2810,7 +2880,7 @@
         <v>1.5131882832741729E-3</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O40" s="26">
         <v>1</v>
@@ -2818,23 +2888,25 @@
       <c r="P40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="31"/>
+      <c r="Q40" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="34">
@@ -2859,31 +2931,33 @@
         <v>0</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O41" s="33">
         <v>1</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27">
@@ -2906,7 +2980,7 @@
         <v>2.4362331360714183E-3</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O42" s="26">
         <v>1</v>
@@ -2914,7 +2988,9 @@
       <c r="P42" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="31"/>
+      <c r="Q42" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I42">
@@ -2928,43 +3004,43 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{D7740322-0EE1-497A-B071-E830A4A52BE3}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{7433691E-03C7-4D18-BA9C-A02EA662A8E2}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{27390414-A653-4777-9877-F414EFC168D5}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{FA61A9FD-BCDA-4B8D-8661-D027125091AF}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{6D690156-AC26-4256-9A46-0B25EF10F31F}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{C44DF8BB-2237-4D22-9B8A-A84462B6C8A7}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{3164FE61-D656-4821-BC71-0B74D3741648}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{930C364E-3562-420B-906E-0D2AEBE085EF}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{A731D259-9B31-47B0-A3E4-EEBB5EC23C7B}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{6B0230CE-F8AC-4672-A418-6555AFECF999}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{58781D0D-9FD1-44AA-AD76-CCB5DDE081BE}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{388968E0-5E95-4741-94D5-1402ACF4C6FF}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{34515815-5F2E-4B2A-A2AA-7204DE0A2296}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{CE95BF31-E7AC-4D29-B3D9-419D220A03B3}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{8E66A5C3-47C7-4803-A2D7-1C1941A52014}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{B4427B15-4E71-4AB3-A667-1E2CC31C0040}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{583D8D67-97CD-48C0-9218-DB4E446F9EEB}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{E90A461C-50F4-4434-A8D6-8F78F712DA5C}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{1F4BFBAF-009A-4D43-BF03-90E4C2D588D9}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{3AB74F88-B8EF-40A5-90AA-9AE0A741AE82}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{2E66C651-988F-449A-8237-E40CC00B6624}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{19AF206D-162B-49C9-A8FC-9CA3EAFCC133}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{0A132D8D-4852-4189-A46E-4D927024D5EE}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{B9FE3371-391B-4F7C-8B93-C23CDFFA9B74}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{87FFC1D9-0EED-4B65-9108-32631F895D3E}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{EE5E30F0-62ED-4326-A474-3036AE7AFFBA}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{5701665E-ACE1-4862-9873-AE37C2DBFA83}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{CDA081DD-B8B0-40DF-B11A-645A92C81C63}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{A6AF344B-A185-41AA-823B-F077F8769E24}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{FAB853DF-6C4F-47B5-8FEC-14A7EE377C10}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{A33334EC-E542-438F-B319-4E562D4086EC}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{17EDB122-3AC3-4B3B-A059-A8896FB61513}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{1AFBE43E-93FA-43C2-94B5-4E9814CEDA62}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{ECCF36BB-4971-4699-A7C2-12BFD7FB472F}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{B8C006D9-54E2-487C-968B-11080947E16C}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{CE0B316F-E159-4DBA-AFF0-04DB178E3A5F}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{8D02588D-6568-4464-962A-9613AAD50AAE}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{EBAE0242-4210-4A72-A264-88871E357888}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{19B0955B-06AD-4B19-8117-6B1517432E1B}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{39A76746-5B3F-4D72-9209-324A93481DA6}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{45A7B41A-4D63-43EE-AEB9-381E43B8FAF3}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{16E02B54-CAB4-4298-8CB7-6E5D087292A9}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{EE19F64D-AB86-4BA5-A775-52A39C6FC928}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{68C49EFF-3FE7-47F9-92EE-3341EBD167E9}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{FDFE9C56-FDD3-4873-8128-176987DCF72D}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{0289EE15-173B-476C-92AC-A11FD3BB6029}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{32C63EF6-409F-49D5-B07B-5430921AE7F9}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{43D497DD-1CFF-46F9-BF1C-B2F9D4B676D6}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{F3714EB9-3786-4680-9075-58EE59D606E1}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{3293582A-7E7E-4E46-83BD-FF9C8E5CD6C2}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{A370B13E-E1F9-46D1-9C8A-9F335D9AC675}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{734FB19F-BA12-4652-B368-CAE93A1A685C}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{7BB989C7-B701-485A-B8A8-27414EE34FD5}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{03F1A9F2-0C0F-4D78-9391-80015E9EAC9A}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{5DEA1A71-D2A9-46AB-818E-9352E059B4BE}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{E6954069-382F-4ACE-986C-E0E293263131}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{321108BF-71BB-4993-A366-2E88F3AA1AD7}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{0A608FAE-2549-435F-81BC-E72F981C3D4C}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{46862600-4E58-494B-B79F-6FB8DE1643E0}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{CBE44C47-085F-4C9C-B9BF-0F6D29EC7477}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{25F2E4D4-FF30-4BE4-A84F-F5BFF5C1FAB7}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{86F57968-24C6-442B-951E-81D190100ACE}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{FF58C329-2D70-4F2B-A85C-8E96FEEDD449}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{7F04EC10-CCB2-4F4C-BDDA-8B789160F7B4}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{AFC6A536-945E-464A-BA3E-9DBE0F59589A}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{027209F2-7AF6-4A76-91CC-9820A0465D86}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{D2B03340-6F6A-418D-BAF1-B6D6DC716D50}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{BDA3E93A-460A-4FA4-AE05-A56100559848}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{41090DF7-AEC3-4951-B5AA-B01348F4C69D}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{53378EE7-8E2E-42B6-94E6-C170A61D471E}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{8517B401-6423-4143-8BAB-F09C7531E908}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{E2C93888-50A3-49AD-91B5-FED0A56A7280}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{C4EA74BE-F50C-4DAF-A064-C3E283F54A86}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{13BCFA61-1479-4CC8-940F-3D06AFCCB363}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
